--- a/Hind et al_Coralline Quad Data.xlsx
+++ b/Hind et al_Coralline Quad Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
@@ -538,10 +538,10 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Depth (m)</t>
-  </si>
-  <si>
     <t>Neopolyporolithon sp.</t>
+  </si>
+  <si>
+    <t>Raw Depth (m)</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -1018,7 +1018,7 @@
     <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" style="1" customWidth="1"/>
@@ -1039,7 +1039,7 @@
         <v>139</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>144</v>
@@ -4265,7 +4265,7 @@
         <v>52</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K99" s="6">
         <v>0.5</v>
